--- a/German_confidences.xlsx
+++ b/German_confidences.xlsx
@@ -394,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.7071604053342854</v>
+        <v>0.9149783418959868</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -405,7 +405,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.9588394311124367</v>
+        <v>0.7899905812784629</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.9667436689883536</v>
+        <v>0.8354572265039483</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9386352193351494</v>
+        <v>0.8403882171254882</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.9753637434030967</v>
+        <v>0.9708445369690574</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.9564217375540071</v>
+        <v>0.957955708376285</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.5110999196799397</v>
+        <v>0.8129038685224471</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.8852200092649707</v>
+        <v>0.9958829164947639</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.9162521726845125</v>
+        <v>0.9651507845308124</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.9931627016480908</v>
+        <v>0.9226155817684076</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.9962832181836243</v>
+        <v>0.9337804029112441</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.7573824789781921</v>
+        <v>0.9473902288682106</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.6610904944823082</v>
+        <v>0.909597061640697</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.9912738103563142</v>
+        <v>0.8530175966435313</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.9915594301353619</v>
+        <v>0.9432724250217778</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.972634813832181</v>
+        <v>0.8826350719118632</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.7453525881827051</v>
+        <v>0.9471557138749874</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.9730230183858886</v>
+        <v>0.8851315173775334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.9296029337702498</v>
+        <v>0.9445482882440972</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9301696168354603</v>
+        <v>0.9951212446969496</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -686,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.9967478826611169</v>
+        <v>0.9088261379238814</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.9841479606752239</v>
+        <v>0.9160860614380379</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.952830662486031</v>
+        <v>0.9745205586177409</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.8961100815443201</v>
+        <v>0.9749499772291311</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.9723020130402048</v>
+        <v>0.8162658548243412</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0.94405321250345</v>
+        <v>0.9839106813987847</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.9530580267732475</v>
+        <v>0.9848555240443396</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.9475979840134691</v>
+        <v>0.9371443757234268</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.7891374613431238</v>
+        <v>0.9642715710555549</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -809,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9883071747882728</v>
+        <v>0.9549646073170913</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.8776857275544987</v>
+        <v>0.9852918860424695</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.9572739940946317</v>
+        <v>0.9595917946642119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.9190079827943537</v>
+        <v>0.7145994535019609</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.90644663446794</v>
+        <v>0.9951273167425906</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.9357754131576913</v>
+        <v>0.7325854640798497</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.9782887695501008</v>
+        <v>0.8476389183702946</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.9707898494093556</v>
+        <v>0.8831599052308473</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.9532341539704228</v>
+        <v>0.9801068253344216</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.8562190398993117</v>
+        <v>0.9640188116597169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.9964842074361017</v>
+        <v>0.9246801814790123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.9404843697688301</v>
+        <v>0.9883013351683427</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9638686330450809</v>
+        <v>0.8739224518827732</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.9943597291068964</v>
+        <v>0.9307903991102819</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.9467962302775896</v>
+        <v>0.9868789573688683</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.6275880857280154</v>
+        <v>0.8928986978240923</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1009,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9570571469771362</v>
+        <v>0.8977414856335785</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.8603285131024756</v>
+        <v>0.9786975086357006</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.8543572114378707</v>
+        <v>0.9839373266221655</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1042,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.7721626660538846</v>
+        <v>0.9639517408951249</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.8263736557428708</v>
+        <v>0.9755403328547317</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0.9709779890205721</v>
+        <v>0.8100351676803498</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.8415523892773182</v>
+        <v>0.9627554341027249</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.9704122864203553</v>
+        <v>0.9334066105281452</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.831633933198864</v>
+        <v>0.9546020268143384</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1108,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.8538669300987051</v>
+        <v>0.9872131430790451</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.9773199298692825</v>
+        <v>0.9272147335951241</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.786146363635632</v>
+        <v>0.9671873514472314</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.9187583183680382</v>
+        <v>0.9748450454904017</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.8643108127207413</v>
+        <v>0.9840470525387223</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1163,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.8242432658507988</v>
+        <v>0.9740699564738141</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.8427524838857937</v>
+        <v>0.9868985436686545</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.9972651397165594</v>
+        <v>0.8945546404744825</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1196,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.8796476767993491</v>
+        <v>0.9557406845781182</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.8084765097553434</v>
+        <v>0.9640826755691408</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.9653403883681999</v>
+        <v>0.8854593929746878</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.8653055915447336</v>
+        <v>0.9893463096752357</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0.8859239833534261</v>
+        <v>0.9960549920748468</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.9162830068707282</v>
+        <v>0.7201587825729637</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.9466233296383599</v>
+        <v>0.9473110092667004</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.8501332171061992</v>
+        <v>0.9545927127971245</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.9213409742593408</v>
+        <v>0.9934336152829016</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.5935076776607704</v>
+        <v>0.873121329105594</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.7769701039501092</v>
+        <v>0.9633387082996862</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.9304668816319291</v>
+        <v>0.9809652250974664</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.960432899492883</v>
+        <v>0.7685601638725121</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.9060134893951018</v>
+        <v>0.9479578687087991</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.9288562844938316</v>
+        <v>0.9893969326438008</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.8207883376422276</v>
+        <v>0.9651968498609189</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0.6909916355710221</v>
+        <v>0.9190657821618297</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0.8084682690632751</v>
+        <v>0.9660069763512222</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.8010928327096253</v>
+        <v>0.9716995074100379</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0.9351567389755593</v>
+        <v>0.9934452455743223</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0.9933894465580957</v>
+        <v>0.9352665379676688</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0.8842713303757683</v>
+        <v>0.9924227481265019</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.9912327061176905</v>
+        <v>0.9159337248725552</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0.9814341025863899</v>
+        <v>0.957386664596287</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0.9002434930105129</v>
+        <v>0.9657402271772737</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.9903585027607039</v>
+        <v>0.8925610171817037</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>0.7192420617435746</v>
+        <v>0.9068451938551582</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0.9588901846469674</v>
+        <v>0.978712829513659</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0.9320819674470266</v>
+        <v>0.7623209395008281</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>0.745680720767575</v>
+        <v>0.944795321915424</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.8785147834388287</v>
+        <v>0.9264855921940111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>0.8975835840935608</v>
+        <v>0.9962344536157124</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>0.7597347460765765</v>
+        <v>0.938101862553831</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0.8418217244038381</v>
+        <v>0.9871510842661169</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0.8763157684353891</v>
+        <v>0.9579736361706617</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.7526952618767893</v>
+        <v>0.9491615549574682</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>0.9094106808092728</v>
+        <v>0.9727858075156831</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>0.9811654326714498</v>
+        <v>0.9271882001429997</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0.9903675322963716</v>
+        <v>0.9463807545661282</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>0.9785855235231655</v>
+        <v>0.9475978814980118</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>0.9716152695559985</v>
+        <v>0.8493964343012189</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.7506597290849654</v>
+        <v>0.9420214246821904</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>0.9157074974837561</v>
+        <v>0.903150682943044</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>0.8428188637577719</v>
+        <v>0.9526060398422025</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>0.8558838148583007</v>
+        <v>0.9847397912311694</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>0.8430788343168203</v>
+        <v>0.987512278852326</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>0.7490970436060364</v>
+        <v>0.952020716628487</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>0.6413149909504685</v>
+        <v>0.8963412866097057</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>0.9031067696778123</v>
+        <v>0.9911781114446954</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>0.868687136586094</v>
+        <v>0.962229071831661</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>0.8370987289307975</v>
+        <v>0.9543784776799533</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>0.8842012389031795</v>
+        <v>0.9879606148105323</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>0.7656806627730762</v>
+        <v>0.9482081974079783</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>0.8991083181501466</v>
+        <v>0.8650890357473975</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>0.9885896086414088</v>
+        <v>0.9284960715571383</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>0.9899026738092076</v>
+        <v>0.8610793345381782</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0.6994280685148536</v>
+        <v>0.9314718184681702</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>0.5846531477977978</v>
+        <v>0.8611917947455181</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>0.9199337893636621</v>
+        <v>0.9459662672543704</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.934572931909752</v>
+        <v>0.9642593046394173</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>0.9890731700992358</v>
+        <v>0.9000423570353677</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>0.9703117770845398</v>
+        <v>0.9768819827345533</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>0.9521963385620912</v>
+        <v>0.9893697864493359</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>0.7544999080431761</v>
+        <v>0.9397868745943267</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>0.9950251308794107</v>
+        <v>0.9013416309614202</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>0.9168054516325561</v>
+        <v>0.9378991565461835</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>0.9647828177741548</v>
+        <v>0.9827374564640234</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>0.8646054047339218</v>
+        <v>0.9841042450447787</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>0.8231256236231959</v>
+        <v>0.9604073559623227</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>0.7946017691315882</v>
+        <v>0.9463006682970495</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>0.984488418547166</v>
+        <v>0.8378802619887552</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>0.8589531683814368</v>
+        <v>0.9846887170122947</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <v>0.962326726614836</v>
+        <v>0.9253450521544886</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>0.8208316012803596</v>
+        <v>0.9728768095398433</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>0.9181493031883856</v>
+        <v>0.9262419083142921</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>0.9059093957386267</v>
+        <v>0.9559863201404272</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>0.9261313687013926</v>
+        <v>0.981280506605807</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>0.986339496192432</v>
+        <v>0.8364044850627729</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="C104">
-        <v>0.9810187646537183</v>
+        <v>0.9475509449055438</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="C105">
-        <v>0.8371066627927982</v>
+        <v>0.9364257823890049</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>0.7688492079293219</v>
+        <v>0.9612195155829136</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>0.9919714268572092</v>
+        <v>0.8582965403168984</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="C108">
-        <v>0.9613754070640718</v>
+        <v>0.9765492359264661</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <v>0.889239914914691</v>
+        <v>0.9745320560964572</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="C110">
-        <v>0.9074267532367637</v>
+        <v>0.9969050953649519</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="C111">
-        <v>0.7061145387612382</v>
+        <v>0.9174245234206099</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <v>0.9515611141079159</v>
+        <v>0.9778972751341705</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>0.8619654260134432</v>
+        <v>0.9830356309151391</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0.8517971943499166</v>
+        <v>0.9710513551807245</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>0.9380198146950181</v>
+        <v>0.9858295949286042</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>0.8126038196632513</v>
+        <v>0.9772481442126248</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>0.9611022374201962</v>
+        <v>0.957902045959838</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.7863753672759445</v>
+        <v>0.9592099179016012</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.966094048974191</v>
+        <v>0.981980659372844</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.8286279708797407</v>
+        <v>0.9640611799686463</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.990647839747788</v>
+        <v>0.9450981906679994</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2276,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.998093190923343</v>
+        <v>0.9002997609035863</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.9891862498699427</v>
+        <v>0.871915161177626</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.6493218047397484</v>
+        <v>0.8950320177711222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8369857218172965</v>
+        <v>0.9773036666722826</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.9365362402784075</v>
+        <v>0.858100956858598</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2331,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.9933739740082553</v>
+        <v>0.9406826674626224</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.6526158435491074</v>
+        <v>0.9080464352352486</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.9232516460596352</v>
+        <v>0.8367465222590897</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2364,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0.9617001302550412</v>
+        <v>0.7867912837383358</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2375,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.6551039972166602</v>
+        <v>0.8958579865595585</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2386,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.9850601598571324</v>
+        <v>0.9508475911317689</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2397,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.9842668043953479</v>
+        <v>0.959771139255324</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.9953177349253133</v>
+        <v>0.9283462247694293</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2419,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.9468667934402566</v>
+        <v>0.9601912435968328</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.9164830971477061</v>
+        <v>0.7673683842741993</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2441,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.9606381390211706</v>
+        <v>0.9514071164581345</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.9515574710235482</v>
+        <v>0.9812497316796154</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.8658355099615538</v>
+        <v>0.9837425706962509</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2474,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.9357977053910116</v>
+        <v>0.9153881290233972</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.7596491476080629</v>
+        <v>0.953753004013276</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.9504063193220459</v>
+        <v>0.7898695307061766</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.8484621728077544</v>
+        <v>0.9601688707611924</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2518,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.8032652306717507</v>
+        <v>0.9699453790543883</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2529,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.6993077174512938</v>
+        <v>0.9146958690539839</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2540,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0.7634510829545927</v>
+        <v>0.962980664832906</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.6638040309934352</v>
+        <v>0.9102799603696524</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.8613348617947625</v>
+        <v>0.9634563987075478</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2573,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.941105311399798</v>
+        <v>0.9854497105109352</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.7955298984942134</v>
+        <v>0.9610407785340408</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2595,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.7759948004750441</v>
+        <v>0.9611822219146883</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2606,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.9042018830347557</v>
+        <v>0.9885488698944521</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.6930213371807417</v>
+        <v>0.9288424915357577</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2628,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.9148659223496425</v>
+        <v>0.9961406953667095</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2639,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.874385415839167</v>
+        <v>0.9487583229823637</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.7713114921430304</v>
+        <v>0.961146617814043</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2661,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.772379641666805</v>
+        <v>0.9589108048194833</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0.9086247095450674</v>
+        <v>0.9428568107889576</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0.7823532734118313</v>
+        <v>0.965431723905149</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.6097632521930949</v>
+        <v>0.8837733779329273</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0.929152532886084</v>
+        <v>0.9608390719054122</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0.7757715586075768</v>
+        <v>0.9430188725862777</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0.9894364434842174</v>
+        <v>0.9212631212122199</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.8756470597985896</v>
+        <v>0.9886516379599516</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0.7370086506860419</v>
+        <v>0.945414051614708</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0.7760790648306156</v>
+        <v>0.965518770546409</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.9541951160016878</v>
+        <v>0.9832918519460878</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>0.9394141811909171</v>
+        <v>0.9712852995485657</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0.816636323767243</v>
+        <v>0.9749067246801967</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0.8627562126498655</v>
+        <v>0.9878031188984536</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>0.6339902244465102</v>
+        <v>0.888876286363798</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.8457861007958245</v>
+        <v>0.9788925553207638</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>0.9687921957719833</v>
+        <v>0.970288724752454</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>0.9634061028657178</v>
+        <v>0.9799136217476845</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0.9960779930673338</v>
+        <v>0.9107810505169158</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0.6574013695874212</v>
+        <v>0.9069992579184477</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.938480983660137</v>
+        <v>0.9818206445771244</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2892,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>0.9626079233165343</v>
+        <v>0.9712084966924727</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>0.9050835147458427</v>
+        <v>0.9901030170137538</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0.9483329185018827</v>
+        <v>0.8232564889699028</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>0.8713984219265661</v>
+        <v>0.9918472639441619</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2936,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>0.913236684512867</v>
+        <v>0.9934875958816376</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.6772808633620292</v>
+        <v>0.9190105132715006</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2958,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>0.8975861736158163</v>
+        <v>0.9888691238124732</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>0.9622593721120504</v>
+        <v>0.8286649478659762</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2980,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>0.9855714060754156</v>
+        <v>0.8749435904808636</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>0.8760964046200266</v>
+        <v>0.9658500680913702</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>0.9683270329902346</v>
+        <v>0.804930031914909</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3013,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>0.8178522456116574</v>
+        <v>0.9738198614749604</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>0.8808464238176333</v>
+        <v>0.9741354491078055</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3035,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>0.522612848628674</v>
+        <v>0.8263817900079948</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>0.9956494537792928</v>
+        <v>0.9039832379795233</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3057,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>0.6583078330588923</v>
+        <v>0.900468723263058</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3068,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>0.7654838914800595</v>
+        <v>0.9572300864885422</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>0.9900798790520368</v>
+        <v>0.9488140829565069</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>0.7289753806160592</v>
+        <v>0.943043093446452</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>0.8577660683474654</v>
+        <v>0.9928755586599707</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0.9443929046721647</v>
+        <v>0.9913222823030813</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3123,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>0.8639956502760187</v>
+        <v>0.9836640803725071</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3134,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>0.9490433441239924</v>
+        <v>0.9903685120826432</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.9601415779057734</v>
+        <v>0.8512467701647672</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3156,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>0.8506620383293859</v>
+        <v>0.9818268690452771</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>0.8261318895353479</v>
+        <v>0.9796992526364506</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>0.7665946756898403</v>
+        <v>0.9109740209458698</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3189,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>0.9726016487204856</v>
+        <v>0.9447638497917965</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>0.9059795576462299</v>
+        <v>0.7274416904921911</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>0.9630146308268133</v>
+        <v>0.9366485156015608</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3222,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>0.8042121142798986</v>
+        <v>0.9702601212715003</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3233,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>0.9308032873318739</v>
+        <v>0.9904483087214334</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3244,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>0.5734600620871392</v>
+        <v>0.8598642365648642</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3255,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>0.9789400210999473</v>
+        <v>0.9600099557948127</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3266,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>0.8122862457778368</v>
+        <v>0.9769875319015556</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3277,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>0.7894716838006268</v>
+        <v>0.9396896752459697</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3288,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>0.9125037763750358</v>
+        <v>0.9243471650847779</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>0.8742551701034382</v>
+        <v>0.9154062002934036</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>0.9782162954339109</v>
+        <v>0.9710880151229392</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3321,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>0.920191014948603</v>
+        <v>0.993306365951756</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3332,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>0.9481502580905675</v>
+        <v>0.9571459330823991</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3343,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>0.804199639620874</v>
+        <v>0.9718063279199545</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3354,7 +3354,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>0.8543486540114037</v>
+        <v>0.975840020023216</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>0.9579809829346305</v>
+        <v>0.951914811649608</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3376,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>0.7650128951085146</v>
+        <v>0.9587946779758516</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>0.9648318048943139</v>
+        <v>0.8770391540234869</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3398,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>0.6677765259995148</v>
+        <v>0.91198753228615</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.9229479265275862</v>
+        <v>0.8518915205803563</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>0.9749147180377594</v>
+        <v>0.8846740388337673</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3431,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>0.6760575205630517</v>
+        <v>0.91956992524161</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3442,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>0.6390455131405479</v>
+        <v>0.8977780632424178</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>0.940011183829866</v>
+        <v>0.9448721226893178</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3464,7 +3464,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>0.6303178174642249</v>
+        <v>0.8901858572129595</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>0.9514208001344762</v>
+        <v>0.8396912159718407</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3486,7 +3486,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>0.7911334425972729</v>
+        <v>0.9406786187795291</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3497,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>0.8835959699328978</v>
+        <v>0.9604471921363822</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3508,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>0.5778808835436169</v>
+        <v>0.8527809908345445</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <v>0.8429328384065728</v>
+        <v>0.9888164746157992</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3530,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>0.8096807564585665</v>
+        <v>0.9675684862413425</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3541,7 +3541,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>0.7699967048189824</v>
+        <v>0.946154214417227</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3552,7 +3552,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>0.6408853007488842</v>
+        <v>0.8922441927385144</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3563,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>0.7723172862685102</v>
+        <v>0.9630270642749121</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>0.8408067325376515</v>
+        <v>0.9769461289887101</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3585,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>0.9897687091258135</v>
+        <v>0.8508690997878061</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3596,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>0.9893910032034733</v>
+        <v>0.9471900051206871</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3607,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>0.9820151177160423</v>
+        <v>0.8157536851439114</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3618,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>0.987567780981307</v>
+        <v>0.8867062297066477</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>0.9546710861748424</v>
+        <v>0.7571102047334807</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3640,7 +3640,7 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>0.8847557713964447</v>
+        <v>0.9892627059527656</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3651,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>0.7825104025607403</v>
+        <v>0.9601638101338854</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3662,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>0.8753739271866138</v>
+        <v>0.9618478907406395</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0.9801486160146279</v>
+        <v>0.8303402936960818</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>0.8122562649476175</v>
+        <v>0.9795588672244031</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3695,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>0.8747259475632866</v>
+        <v>0.9668349463746488</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3706,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>0.6302069352664352</v>
+        <v>0.8859931240304489</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>0.8384413024454106</v>
+        <v>0.9696526522297761</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3728,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>0.9696259757628222</v>
+        <v>0.8957235125141739</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3739,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>0.9486106538979796</v>
+        <v>0.9905802064090447</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>0.7482258304319507</v>
+        <v>0.9431091875876498</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>0.6781977496494821</v>
+        <v>0.9154123564507531</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>0.9046604540910933</v>
+        <v>0.9859568114532318</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>0.7653109287215923</v>
+        <v>0.9603841050980291</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3794,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>0.887967072051325</v>
+        <v>0.9826932290947645</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3805,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>0.6937705689097985</v>
+        <v>0.9228626320164346</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>0.8398788719892792</v>
+        <v>0.9859405517533324</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3827,7 +3827,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>0.5532646590939738</v>
+        <v>0.8440727330436443</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>0.5970066698456574</v>
+        <v>0.8709986830884398</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3849,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>0.8898273737360105</v>
+        <v>0.9642377443811813</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="C150">
-        <v>0.8778528574780234</v>
+        <v>0.7820707635935753</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3871,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>0.9863763399703198</v>
+        <v>0.933236826719628</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>0.7999797434902357</v>
+        <v>0.9668140892169985</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3893,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="C153">
-        <v>0.7443664300872925</v>
+        <v>0.9471023495202701</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3904,7 +3904,7 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>0.9132709108459869</v>
+        <v>0.9765773500658536</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3915,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="C155">
-        <v>0.6893330428143805</v>
+        <v>0.924338120721123</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3926,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>0.6252038276628795</v>
+        <v>0.893041605132617</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3937,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0.9367286136787395</v>
+        <v>0.950983381899669</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>0.8832509468284226</v>
+        <v>0.9945696048682027</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3959,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="C159">
-        <v>0.9127540693020108</v>
+        <v>0.9627261209963068</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>0.9072056091615281</v>
+        <v>0.9612294489406357</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3981,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>0.9437086486010573</v>
+        <v>0.8548177574860045</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>0.8649940104501516</v>
+        <v>0.9515237014391462</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4003,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="C163">
-        <v>0.9951421995421257</v>
+        <v>0.867857317155057</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4014,7 +4014,7 @@
         <v>4</v>
       </c>
       <c r="C164">
-        <v>0.9660835679907142</v>
+        <v>0.8992105410905704</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4025,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>0.9226676071899528</v>
+        <v>0.974094043460024</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4036,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>0.9722458063866697</v>
+        <v>0.8188971060179256</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4047,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="C167">
-        <v>0.6993053338236472</v>
+        <v>0.930294533392251</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4058,7 +4058,7 @@
         <v>4</v>
       </c>
       <c r="C168">
-        <v>0.9399975740865578</v>
+        <v>0.9886705395962075</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4069,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="C169">
-        <v>0.8647276663895309</v>
+        <v>0.9801641105304651</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4080,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="C170">
-        <v>0.8493924093587583</v>
+        <v>0.9863113479463843</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4091,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>0.883516689273428</v>
+        <v>0.9901274723500645</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4102,7 +4102,7 @@
         <v>4</v>
       </c>
       <c r="C172">
-        <v>0.9942685797355183</v>
+        <v>0.8687806809066699</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4113,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>0.6302092345708284</v>
+        <v>0.8893193249942778</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4124,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>0.9872205892873106</v>
+        <v>0.8928075251804048</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4135,7 +4135,7 @@
         <v>4</v>
       </c>
       <c r="C175">
-        <v>0.9546483343832498</v>
+        <v>0.784479569668086</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4146,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>0.9539087910331946</v>
+        <v>0.9355037266527859</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>4</v>
       </c>
       <c r="C177">
-        <v>0.8259745095294293</v>
+        <v>0.9724776364542115</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4168,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="C178">
-        <v>0.9724938144384928</v>
+        <v>0.8846990892278468</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4179,7 +4179,7 @@
         <v>4</v>
       </c>
       <c r="C179">
-        <v>0.6936754954245987</v>
+        <v>0.929278977701562</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4190,7 +4190,7 @@
         <v>4</v>
       </c>
       <c r="C180">
-        <v>0.996958565517056</v>
+        <v>0.9089549192327491</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4201,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>0.8362245717108797</v>
+        <v>0.6332918435842824</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4212,7 +4212,7 @@
         <v>4</v>
       </c>
       <c r="C182">
-        <v>0.9574712809093104</v>
+        <v>0.9855730956956291</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4223,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="C183">
-        <v>0.9316807066106243</v>
+        <v>0.8734473284621935</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4234,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="C184">
-        <v>0.9519525990577542</v>
+        <v>0.9705453211554926</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4245,7 +4245,7 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>0.956748323866134</v>
+        <v>0.9779857663475275</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4256,7 +4256,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>0.9511890167793317</v>
+        <v>0.9113175101132586</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4267,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="C187">
-        <v>0.8831359578206941</v>
+        <v>0.9869141019358003</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4278,7 +4278,7 @@
         <v>4</v>
       </c>
       <c r="C188">
-        <v>0.9490913996373201</v>
+        <v>0.9439332291010045</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4289,7 +4289,7 @@
         <v>4</v>
       </c>
       <c r="C189">
-        <v>0.7890187128972633</v>
+        <v>0.9691392742227382</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4300,7 +4300,7 @@
         <v>4</v>
       </c>
       <c r="C190">
-        <v>0.9935627726019354</v>
+        <v>0.8653308633211687</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4311,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="C191">
-        <v>0.7526619414455382</v>
+        <v>0.9482068899932529</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.9774346304427001</v>
+        <v>0.9485162239627968</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.9839147928828927</v>
+        <v>0.8727824762082192</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.6880270535879593</v>
+        <v>0.9194082212618372</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5135826898503306</v>
+        <v>0.8084120711941173</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.8950184368723164</v>
+        <v>0.9924039537452279</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.9762505669926185</v>
+        <v>0.8697010838233165</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.798654201649986</v>
+        <v>0.9680158397456609</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.895918342174464</v>
+        <v>0.9912933328704239</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.6439187248999866</v>
+        <v>0.8827826084141498</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.9068364806292352</v>
+        <v>0.9927385608042453</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.7136156441394466</v>
+        <v>0.9205884912841741</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.942992602476581</v>
+        <v>0.9898168810292444</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0.8755066317488004</v>
+        <v>0.9909247051280364</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.9620125709327407</v>
+        <v>0.9877192272808697</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.7669475118955651</v>
+        <v>0.9570451950741256</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.9975445983038607</v>
+        <v>0.930289214235514</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.8197413650619693</v>
+        <v>0.9693514937227291</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.8267356445569375</v>
+        <v>0.9810861728453946</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.8156837716654808</v>
+        <v>0.9777543941841006</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.951322324722582</v>
+        <v>0.9784369478534042</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.9969087085225984</v>
+        <v>0.8894587436830901</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.9848748149098576</v>
+        <v>0.9352507693839986</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.9791887401696237</v>
+        <v>0.9711009035233027</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.8824066653818626</v>
+        <v>0.9871488538793864</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.9899558509995984</v>
+        <v>0.9549557071341508</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.9670921775077352</v>
+        <v>0.840290307290003</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.7754310199785814</v>
+        <v>0.9596640865419717</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.760569402303229</v>
+        <v>0.9379800516621</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0.9740066404649943</v>
+        <v>0.9099084183588859</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.8255342999491593</v>
+        <v>0.9791176477482086</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.9377946700194154</v>
+        <v>0.973720894131295</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.9712675516636201</v>
+        <v>0.9395246167951747</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.9965252053069742</v>
+        <v>0.9337832105817844</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.7364643321428932</v>
+        <v>0.9347829663742103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.9321396611940814</v>
+        <v>0.9939168044734902</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.9854955014748777</v>
+        <v>0.858140269729889</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.9023056946489749</v>
+        <v>0.9436436403527504</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4753,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.9703653683208175</v>
+        <v>0.8258210206124609</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4764,7 +4764,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.9634596548349676</v>
+        <v>0.9189653911611328</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.9071253936957639</v>
+        <v>0.9587060452426767</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4786,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0.9015528978726591</v>
+        <v>0.9881460316868071</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4797,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0.9891184542324857</v>
+        <v>0.9366584700200887</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4808,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.9971867509435595</v>
+        <v>0.932554122222909</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4819,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0.8929949411994569</v>
+        <v>0.9865546951226091</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4830,7 +4830,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0.7203075870804804</v>
+        <v>0.9357822111948608</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4841,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0.9489113928549963</v>
+        <v>0.7755662525629913</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.9705378340068053</v>
+        <v>0.9538759828893054</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4863,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0.951048431156939</v>
+        <v>0.9833508342304269</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4874,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0.6093894127390651</v>
+        <v>0.8730360187955226</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4885,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.9612969620022889</v>
+        <v>0.9863095850942077</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4896,7 +4896,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>0.6619094047968949</v>
+        <v>0.8930394159762171</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4907,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0.8540394747669873</v>
+        <v>0.9561923812332457</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0.9953353724731646</v>
+        <v>0.9137089945563978</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4929,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>0.7976798269818715</v>
+        <v>0.9375470949484349</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4940,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.9004175969102665</v>
+        <v>0.9969313716501643</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4951,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>0.8995248520968911</v>
+        <v>0.9843263393874225</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>0.9897722733098394</v>
+        <v>0.9110424699984545</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4973,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0.89754091715125</v>
+        <v>0.9935415516695409</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0.6014372401196609</v>
+        <v>0.8630276602712535</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.6989622514411261</v>
+        <v>0.920351762675469</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5006,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>0.9641624922171307</v>
+        <v>0.892367709478557</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>0.8564459913481791</v>
+        <v>0.9864085098949698</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5028,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0.9394282524061575</v>
+        <v>0.9942465883146008</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5039,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>0.8822973207869141</v>
+        <v>0.9914246322652436</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5050,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>0.8245687408672863</v>
+        <v>0.9706309833992882</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.9377300618464783</v>
+        <v>0.993638502837725</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5072,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>0.9668731362414704</v>
+        <v>0.7969515980507239</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5083,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>0.9921787534290201</v>
+        <v>0.94857459222976</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>0.7787647334223727</v>
+        <v>0.9573805114831808</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5105,7 +5105,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>0.8610344167774295</v>
+        <v>0.9876153702698595</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5116,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>0.7517241839924401</v>
+        <v>0.9505989082485633</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5127,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>0.711847288495993</v>
+        <v>0.9283253285565445</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5138,7 +5138,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>0.7750773538091835</v>
+        <v>0.9527218755920537</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5149,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>0.678062737321283</v>
+        <v>0.9064020839304563</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5160,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>0.8112056545232142</v>
+        <v>0.9638383674433337</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>0.9795483498610627</v>
+        <v>0.8961308197997837</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>0.9893840963874895</v>
+        <v>0.8940442290045504</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5193,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>0.9722291711667415</v>
+        <v>0.9746798042645969</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5204,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>0.8220929601834607</v>
+        <v>0.9687770704367907</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5215,7 +5215,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>0.9445360652433037</v>
+        <v>0.9902840599068328</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5226,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0.7560526618535226</v>
+        <v>0.9533352497902825</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5237,7 +5237,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>0.8794875156996613</v>
+        <v>0.9701552187103394</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>0.8453244189559773</v>
+        <v>0.9828472722894138</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5259,7 +5259,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.9513689185170494</v>
+        <v>0.8053801625885755</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5270,7 +5270,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>0.9691854575275135</v>
+        <v>0.9476321326684199</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>0.9185516652299019</v>
+        <v>0.8872739012365012</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5292,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>0.9957243342481749</v>
+        <v>0.8908126995579756</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5303,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>0.9469255469333737</v>
+        <v>0.993570810126241</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>0.9846502822932955</v>
+        <v>0.9661444392830062</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>0.781059249823345</v>
+        <v>0.964366865705673</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>0.7301204853907891</v>
+        <v>0.938459777067816</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>0.780974045717179</v>
+        <v>0.9629842600598127</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>0.9629200507512029</v>
+        <v>0.9605038539823457</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>0.9873772815994384</v>
+        <v>0.9166434369717791</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>0.7800866333107781</v>
+        <v>0.9506715475168708</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>0.9916117125449789</v>
+        <v>0.9544609969573882</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>0.9929280173020516</v>
+        <v>0.9441673200363876</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>0.5297169857471713</v>
+        <v>0.8187874941424773</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>0.9758436821034743</v>
+        <v>0.9473876251547421</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>0.6215714042423259</v>
+        <v>0.8703160238494299</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>0.8416128406115098</v>
+        <v>0.9798544423640476</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>0.9849569695682644</v>
+        <v>0.9200363316748876</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>0.8315522917845752</v>
+        <v>0.9683716769858536</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>0.9924269798307883</v>
+        <v>0.8697916109806358</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>0.9486043407671357</v>
+        <v>0.9933122566540575</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>0.9923842527331624</v>
+        <v>0.94662891963993</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>0.987125914181963</v>
+        <v>0.9604183275555558</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.9306657195070412</v>
+        <v>0.7970063609381612</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5534,7 +5534,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>0.9691931589559406</v>
+        <v>0.9348779583144997</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5545,7 +5545,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>0.8634178104939542</v>
+        <v>0.9778778319537721</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5556,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>0.9910224081755272</v>
+        <v>0.9462902765530001</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -5567,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>0.7256705171604225</v>
+        <v>0.9327232889940164</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -5578,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>0.7912659914314676</v>
+        <v>0.9669772882787356</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -5589,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>0.9935568951306015</v>
+        <v>0.9042396057246044</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>0.93250279105898</v>
+        <v>0.791719456558526</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -5611,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>0.7863258868679601</v>
+        <v>0.9629012279906761</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -5622,7 +5622,7 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>0.8435725149037899</v>
+        <v>0.9834868415863182</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -5633,7 +5633,7 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <v>0.7490229586250633</v>
+        <v>0.9472138108909762</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -5644,7 +5644,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>0.8078770743287034</v>
+        <v>0.9730661897327292</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -5655,7 +5655,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>0.8581281591338228</v>
+        <v>0.9890411867497128</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5666,7 +5666,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>0.8552737296437113</v>
+        <v>0.9885662856040617</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5677,7 +5677,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>0.9264777165878972</v>
+        <v>0.9949833987108606</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5688,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>0.9198103082279261</v>
+        <v>0.9893841011534467</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5699,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>0.9726122852615304</v>
+        <v>0.8077439515307286</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>0.9833100740510138</v>
+        <v>0.8531784956555695</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5721,7 +5721,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>0.9113984666456602</v>
+        <v>0.9950880057354359</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5732,7 +5732,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>0.9730379829833395</v>
+        <v>0.8537111425431099</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5743,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>0.6948421982045464</v>
+        <v>0.922007524458346</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5754,7 +5754,7 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>0.9976705802205248</v>
+        <v>0.920917593225395</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5765,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>0.7256868225014023</v>
+        <v>0.9371367749043716</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5776,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>0.9449503583397499</v>
+        <v>0.9548756443172656</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0.8950913861123536</v>
+        <v>0.9687571886179294</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>0.9674211512891752</v>
+        <v>0.9504811155078431</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5809,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>0.9476974084478844</v>
+        <v>0.9937364512215401</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>0.935089613793746</v>
+        <v>0.7285303910583208</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5831,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>0.9337605501847465</v>
+        <v>0.9601636874141412</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5842,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>0.8829929518179042</v>
+        <v>0.9701842163265801</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5853,7 +5853,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>0.8674848501510011</v>
+        <v>0.9879629194973931</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5864,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>0.7571721284194632</v>
+        <v>0.9463619244603879</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5875,7 +5875,7 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>0.9743212869727098</v>
+        <v>0.9764179240662395</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5886,7 +5886,7 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>0.9927846629969959</v>
+        <v>0.8782806567967476</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5897,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>0.9848763521751208</v>
+        <v>0.9630857048134154</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5908,7 +5908,7 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>0.9887657624396954</v>
+        <v>0.9000625269821027</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>0.767230424092191</v>
+        <v>0.9534428059103365</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>0.8156226515285132</v>
+        <v>0.9693378501671873</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5941,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>0.9906621563022352</v>
+        <v>0.9287786276056585</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5952,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>0.7839121182611927</v>
+        <v>0.9579042254702091</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5963,7 +5963,7 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>0.8686107372791181</v>
+        <v>0.9934060849833793</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="C150">
-        <v>0.9640702934402399</v>
+        <v>0.9687329979658164</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5985,7 +5985,7 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>0.9938438103550107</v>
+        <v>0.9230384361923433</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5996,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>0.9685859037718872</v>
+        <v>0.9312253372627315</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -6007,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="C153">
-        <v>0.8905775118849756</v>
+        <v>0.9859382947309585</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -6018,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>0.9887789626034266</v>
+        <v>0.9505888070589245</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="C155">
-        <v>0.9846551246929401</v>
+        <v>0.9139173277531841</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -6040,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>0.8467543285704452</v>
+        <v>0.8594193084409536</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -6051,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0.9923352942146598</v>
+        <v>0.9460718636304032</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -6062,7 +6062,7 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>0.9702977368687812</v>
+        <v>0.981004115157064</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -6073,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="C159">
-        <v>0.8947974391930703</v>
+        <v>0.9718592805108806</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -6084,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>0.9851323833790538</v>
+        <v>0.9573654478639495</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -6095,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>0.9664151102165587</v>
+        <v>0.9592288412604085</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -6106,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="C162">
-        <v>0.9601779845282802</v>
+        <v>0.8135879345770414</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -6117,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>0.9049147321081169</v>
+        <v>0.9683577755539549</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -6128,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="C164">
-        <v>0.7743620988818372</v>
+        <v>0.9563381308983551</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -6139,7 +6139,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>0.9899062709836515</v>
+        <v>0.8954850775921089</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -6150,7 +6150,7 @@
         <v>3</v>
       </c>
       <c r="C166">
-        <v>0.997179401037391</v>
+        <v>0.9339853388810448</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -6161,7 +6161,7 @@
         <v>3</v>
       </c>
       <c r="C167">
-        <v>0.9425976545788189</v>
+        <v>0.9931672675360311</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -6172,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="C168">
-        <v>0.9679798697593537</v>
+        <v>0.8773781910798216</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -6183,7 +6183,7 @@
         <v>3</v>
       </c>
       <c r="C169">
-        <v>0.9488454781942613</v>
+        <v>0.9871581058888803</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -6194,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>0.9917465161758503</v>
+        <v>0.9072733734366454</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -6205,7 +6205,7 @@
         <v>3</v>
       </c>
       <c r="C171">
-        <v>0.9457622740384179</v>
+        <v>0.9681469367649994</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -6216,7 +6216,7 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>0.8406352073995634</v>
+        <v>0.9830983239055843</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -6227,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="C173">
-        <v>0.8908306792875629</v>
+        <v>0.9941096053666442</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -6238,7 +6238,7 @@
         <v>3</v>
       </c>
       <c r="C174">
-        <v>0.942872875035962</v>
+        <v>0.9681977516679076</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6249,7 +6249,7 @@
         <v>3</v>
       </c>
       <c r="C175">
-        <v>0.9514450196254338</v>
+        <v>0.9613181728546055</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -6260,7 +6260,7 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>0.9106523654702906</v>
+        <v>0.8885100039420191</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -6271,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>0.9872440864109314</v>
+        <v>0.962508877711203</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -6282,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>0.9510943020848958</v>
+        <v>0.943307762762179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -6293,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="C179">
-        <v>0.8459231611517036</v>
+        <v>0.9723072341984964</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6304,7 +6304,7 @@
         <v>3</v>
       </c>
       <c r="C180">
-        <v>0.9376623847661182</v>
+        <v>0.9872798186513805</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -6315,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="C181">
-        <v>0.7643855088011715</v>
+        <v>0.941356855808596</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -6326,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="C182">
-        <v>0.9917082994835147</v>
+        <v>0.9465744862971507</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6337,7 +6337,7 @@
         <v>3</v>
       </c>
       <c r="C183">
-        <v>0.9469230474939182</v>
+        <v>0.9895895427072476</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6348,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>0.9946982924768139</v>
+        <v>0.8791475319670423</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -6359,7 +6359,7 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <v>0.8176534752623136</v>
+        <v>0.9350192888632362</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -6370,7 +6370,7 @@
         <v>3</v>
       </c>
       <c r="C186">
-        <v>0.906914596880545</v>
+        <v>0.9876046557248658</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>0.9949901559001502</v>
+        <v>0.8902200664644841</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -6392,7 +6392,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>0.884486528286473</v>
+        <v>0.9747861426350259</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -6403,7 +6403,7 @@
         <v>3</v>
       </c>
       <c r="C189">
-        <v>0.6854711776470297</v>
+        <v>0.8976481157997864</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -6414,7 +6414,7 @@
         <v>3</v>
       </c>
       <c r="C190">
-        <v>0.6176735838198075</v>
+        <v>0.8773659514175541</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6425,7 +6425,7 @@
         <v>3</v>
       </c>
       <c r="C191">
-        <v>0.6489435714809171</v>
+        <v>0.8928564370605319</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6436,7 +6436,7 @@
         <v>3</v>
       </c>
       <c r="C192">
-        <v>0.8902038631782884</v>
+        <v>0.946622946986982</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6447,7 +6447,7 @@
         <v>3</v>
       </c>
       <c r="C193">
-        <v>0.7780540852189444</v>
+        <v>0.9493227335337612</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6458,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>0.9843132780796339</v>
+        <v>0.950462531644547</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6469,7 +6469,7 @@
         <v>3</v>
       </c>
       <c r="C195">
-        <v>0.771338842016587</v>
+        <v>0.9594124569467115</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6480,7 +6480,7 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>0.9806432624277773</v>
+        <v>0.9576783583602314</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6491,7 +6491,7 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>0.977203536646112</v>
+        <v>0.9623183045344046</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6502,7 +6502,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>0.9769727407770634</v>
+        <v>0.9722485307510877</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6513,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>0.9770084794089938</v>
+        <v>0.8284527435246825</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6524,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>0.8918634441467408</v>
+        <v>0.9891304943900929</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6535,7 +6535,7 @@
         <v>3</v>
       </c>
       <c r="C201">
-        <v>0.8026792462251854</v>
+        <v>0.9626447110458841</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6546,7 +6546,7 @@
         <v>3</v>
       </c>
       <c r="C202">
-        <v>0.9763802996560041</v>
+        <v>0.9755787808182363</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6557,7 +6557,7 @@
         <v>3</v>
       </c>
       <c r="C203">
-        <v>0.9245770961584532</v>
+        <v>0.9873496009245353</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6568,7 +6568,7 @@
         <v>3</v>
       </c>
       <c r="C204">
-        <v>0.8660203551803844</v>
+        <v>0.991165990001869</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6579,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>0.9946242222579579</v>
+        <v>0.9475037817790131</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6590,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="C206">
-        <v>0.7872421232964851</v>
+        <v>0.9637836742156736</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6601,7 +6601,7 @@
         <v>3</v>
       </c>
       <c r="C207">
-        <v>0.9066101956881625</v>
+        <v>0.7551404487869749</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6612,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>0.9784075022943074</v>
+        <v>0.8693923965812407</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -6623,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="C209">
-        <v>0.6400951853115698</v>
+        <v>0.8873966601844978</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -6634,7 +6634,7 @@
         <v>3</v>
       </c>
       <c r="C210">
-        <v>0.7820274301633497</v>
+        <v>0.9458224600164781</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -6645,7 +6645,7 @@
         <v>3</v>
       </c>
       <c r="C211">
-        <v>0.9831096652070305</v>
+        <v>0.9687659402833465</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -6656,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.6455346605177774</v>
+        <v>0.8958487450322509</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -6667,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="C213">
-        <v>0.8206859391693935</v>
+        <v>0.9750870403414172</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -6678,7 +6678,7 @@
         <v>3</v>
       </c>
       <c r="C214">
-        <v>0.7597510283334116</v>
+        <v>0.9337545701564196</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -6689,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="C215">
-        <v>0.9522314242189803</v>
+        <v>0.879663051272465</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -6700,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="C216">
-        <v>0.9250741794638585</v>
+        <v>0.7597262510139779</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -6711,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>0.9821568879252024</v>
+        <v>0.9655019058932022</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -6722,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="C218">
-        <v>0.9668073183047908</v>
+        <v>0.9486334333131577</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -6733,7 +6733,7 @@
         <v>3</v>
       </c>
       <c r="C219">
-        <v>0.8247369629752572</v>
+        <v>0.9513989757797129</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6744,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <v>0.994608097482071</v>
+        <v>0.9346905233034328</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -6755,7 +6755,7 @@
         <v>3</v>
       </c>
       <c r="C221">
-        <v>0.8521356519254714</v>
+        <v>0.981592763259072</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -6766,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="C222">
-        <v>0.7867242738567515</v>
+        <v>0.9577623146371653</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6777,7 +6777,7 @@
         <v>3</v>
       </c>
       <c r="C223">
-        <v>0.9928404123796883</v>
+        <v>0.8834365941598181</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -6788,7 +6788,7 @@
         <v>3</v>
       </c>
       <c r="C224">
-        <v>0.6420072148233288</v>
+        <v>0.8834091315234469</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6799,7 +6799,7 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <v>0.6656958590471812</v>
+        <v>0.9030089201579086</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6810,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="C226">
-        <v>0.8914495104902928</v>
+        <v>0.982621664328292</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6821,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="C227">
-        <v>0.956382510264787</v>
+        <v>0.9531435593036932</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6832,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="C228">
-        <v>0.9937684013564182</v>
+        <v>0.9229800615914429</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6843,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="C229">
-        <v>0.9490597834899462</v>
+        <v>0.9896584397258406</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6854,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="C230">
-        <v>0.8602512236539346</v>
+        <v>0.9693996283175612</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6865,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="C231">
-        <v>0.9302087926077127</v>
+        <v>0.9834899474146904</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6876,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="C232">
-        <v>0.9596559084415361</v>
+        <v>0.9788728102488176</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6887,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="C233">
-        <v>0.9584017457385084</v>
+        <v>0.9575350122796729</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6898,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="C234">
-        <v>0.6438777774963913</v>
+        <v>0.8875057888919011</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6909,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="C235">
-        <v>0.8921685700012897</v>
+        <v>0.9770891817520045</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6920,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>0.9296973175474865</v>
+        <v>0.7674853765475168</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>0.6980091403266008</v>
+        <v>0.9227905657618812</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6942,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="C238">
-        <v>0.9848756151359439</v>
+        <v>0.9644016765811998</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6953,7 +6953,7 @@
         <v>4</v>
       </c>
       <c r="C239">
-        <v>0.8022421698331836</v>
+        <v>0.9722956116251886</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6964,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <v>0.7295357156810757</v>
+        <v>0.9315168213832647</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6975,7 +6975,7 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>0.9799465181561527</v>
+        <v>0.8599451139134219</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6986,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="C242">
-        <v>0.9632998700648288</v>
+        <v>0.9857545353229756</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6997,7 +6997,7 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>0.9338429021718188</v>
+        <v>0.7517167408296543</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -7008,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="C244">
-        <v>0.8791157514350743</v>
+        <v>0.9919610644935083</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -7019,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="C245">
-        <v>0.8838551695298184</v>
+        <v>0.9864489415445864</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -7030,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <v>0.9420215695992853</v>
+        <v>0.9810257799746456</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -7041,7 +7041,7 @@
         <v>4</v>
       </c>
       <c r="C247">
-        <v>0.9284567517285943</v>
+        <v>0.9957917769661119</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -7052,7 +7052,7 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>0.8100597621708935</v>
+        <v>0.9737521062988027</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -7063,7 +7063,7 @@
         <v>4</v>
       </c>
       <c r="C249">
-        <v>0.9826532359586372</v>
+        <v>0.9127567756736861</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="C250">
-        <v>0.9815953433575958</v>
+        <v>0.8978699218118579</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -7085,7 +7085,7 @@
         <v>4</v>
       </c>
       <c r="C251">
-        <v>0.9978592794403611</v>
+        <v>0.9113069383559868</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -7096,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="C252">
-        <v>0.9548790793047378</v>
+        <v>0.9869696278593166</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -7107,7 +7107,7 @@
         <v>4</v>
       </c>
       <c r="C253">
-        <v>0.617776626058945</v>
+        <v>0.8783579105895689</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -7118,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="C254">
-        <v>0.8266023027944142</v>
+        <v>0.9633059960541017</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -7129,7 +7129,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>0.7696717027626151</v>
+        <v>0.9573634054029625</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -7140,7 +7140,7 @@
         <v>4</v>
       </c>
       <c r="C256">
-        <v>0.9603738666336258</v>
+        <v>0.7926552157753232</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7151,7 +7151,7 @@
         <v>4</v>
       </c>
       <c r="C257">
-        <v>0.8759676374766286</v>
+        <v>0.9930880906241043</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -7162,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="C258">
-        <v>0.9177340480902941</v>
+        <v>0.9643411032790304</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -7173,7 +7173,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>0.9609209634039229</v>
+        <v>0.9767964219186643</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -7184,7 +7184,7 @@
         <v>4</v>
       </c>
       <c r="C260">
-        <v>0.8218546167237358</v>
+        <v>0.977701792075333</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -7195,7 +7195,7 @@
         <v>4</v>
       </c>
       <c r="C261">
-        <v>0.5759768512198306</v>
+        <v>0.8427880867745956</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7206,7 +7206,7 @@
         <v>4</v>
       </c>
       <c r="C262">
-        <v>0.7612308113619403</v>
+        <v>0.9533266820047128</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -7217,7 +7217,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>0.9060417573826275</v>
+        <v>0.9212543518080053</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7228,7 +7228,7 @@
         <v>4</v>
       </c>
       <c r="C264">
-        <v>0.6813457142827299</v>
+        <v>0.9119130565204324</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7239,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="C265">
-        <v>0.7729477842530701</v>
+        <v>0.9598328941463472</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -7250,7 +7250,7 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <v>0.9042519898723029</v>
+        <v>0.9949865628400286</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -7261,7 +7261,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>0.9252840235916384</v>
+        <v>0.9980860385058352</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -7272,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="C268">
-        <v>0.9985776648335717</v>
+        <v>0.9196365623018516</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -7283,7 +7283,7 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>0.8601152898926056</v>
+        <v>0.9687051319454317</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -7294,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="C270">
-        <v>0.954517343324827</v>
+        <v>0.973150477849374</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -7305,7 +7305,7 @@
         <v>4</v>
       </c>
       <c r="C271">
-        <v>0.8212862393776506</v>
+        <v>0.9738673600198374</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -7316,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="C272">
-        <v>0.7553297340169326</v>
+        <v>0.951518384103616</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -7327,7 +7327,7 @@
         <v>4</v>
       </c>
       <c r="C273">
-        <v>0.9289637469099946</v>
+        <v>0.9840369597531197</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -7338,7 +7338,7 @@
         <v>4</v>
       </c>
       <c r="C274">
-        <v>0.993287159210625</v>
+        <v>0.902327229260114</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -7349,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="C275">
-        <v>0.7045253081232931</v>
+        <v>0.9148891509785688</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -7360,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="C276">
-        <v>0.6830293610052361</v>
+        <v>0.9146651952261771</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -7371,7 +7371,7 @@
         <v>4</v>
       </c>
       <c r="C277">
-        <v>0.9658688619874222</v>
+        <v>0.8108052013731156</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -7382,7 +7382,7 @@
         <v>4</v>
       </c>
       <c r="C278">
-        <v>0.9549773260750164</v>
+        <v>0.9113402477022331</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -7393,7 +7393,7 @@
         <v>4</v>
       </c>
       <c r="C279">
-        <v>0.6802500088019887</v>
+        <v>0.9136237411414948</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -7404,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="C280">
-        <v>0.9588343777800186</v>
+        <v>0.9646029425598548</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -7415,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="C281">
-        <v>0.9832483886877711</v>
+        <v>0.9295820513060608</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -7426,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="C282">
-        <v>0.8759817335495717</v>
+        <v>0.9920809775291726</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -7437,7 +7437,7 @@
         <v>4</v>
       </c>
       <c r="C283">
-        <v>0.8733886698118498</v>
+        <v>0.9782909266206371</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -7448,7 +7448,7 @@
         <v>4</v>
       </c>
       <c r="C284">
-        <v>0.9567819669267291</v>
+        <v>0.8252879013458577</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -7459,7 +7459,7 @@
         <v>4</v>
       </c>
       <c r="C285">
-        <v>0.9237632471425845</v>
+        <v>0.7199765172966687</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -7470,7 +7470,7 @@
         <v>4</v>
       </c>
       <c r="C286">
-        <v>0.9724611046233868</v>
+        <v>0.9722167885639489</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -7481,7 +7481,7 @@
         <v>4</v>
       </c>
       <c r="C287">
-        <v>0.7774747366537135</v>
+        <v>0.9528923639262565</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -7492,7 +7492,7 @@
         <v>4</v>
       </c>
       <c r="C288">
-        <v>0.9949909623292637</v>
+        <v>0.9094032473314707</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -7503,7 +7503,7 @@
         <v>4</v>
       </c>
       <c r="C289">
-        <v>0.9574591160957291</v>
+        <v>0.95370833210176</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -7514,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="C290">
-        <v>0.6143663658436429</v>
+        <v>0.8733434405399298</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -7525,7 +7525,7 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>0.9433121566343621</v>
+        <v>0.9849933514417741</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -7536,7 +7536,7 @@
         <v>4</v>
       </c>
       <c r="C292">
-        <v>0.8488832345071131</v>
+        <v>0.9828171871308564</v>
       </c>
     </row>
   </sheetData>
@@ -7571,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.9840233336247288</v>
+        <v>0.9631074073634932</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.8624454347566779</v>
+        <v>0.966289946275166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.9722189229358063</v>
+        <v>0.9819475382505588</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7604,7 +7604,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5972535356252854</v>
+        <v>0.856691753172829</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7615,7 +7615,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.8232877166543322</v>
+        <v>0.9709846409431701</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.801613712642828</v>
+        <v>0.9604199800549441</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7637,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.6112558545218741</v>
+        <v>0.8616834701308091</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7648,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9681195888125518</v>
+        <v>0.9670096931313311</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7659,7 +7659,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.809579082726003</v>
+        <v>0.9662860997017727</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7670,7 +7670,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.8414879542220159</v>
+        <v>0.9821203713002499</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7681,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.9930791887974951</v>
+        <v>0.9442235069493872</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7692,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.8259244196175364</v>
+        <v>0.974561881567208</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7703,7 +7703,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0.7254843298537491</v>
+        <v>0.9300856133962673</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7714,7 +7714,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.7372624582402716</v>
+        <v>0.9350023805711303</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7725,7 +7725,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.9288210187402451</v>
+        <v>0.9946936829929354</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7736,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.8632275276536442</v>
+        <v>0.9881773334417298</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7747,7 +7747,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.9907738511090918</v>
+        <v>0.9403132169244555</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7758,7 +7758,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.5650502132105734</v>
+        <v>0.8330974101522876</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7769,7 +7769,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.9820509888512932</v>
+        <v>0.9691820425177329</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7780,7 +7780,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.771788531126165</v>
+        <v>0.9526698149777134</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7791,7 +7791,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.9297299059384363</v>
+        <v>0.9333684436620938</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.8113954950700463</v>
+        <v>0.9685843860572164</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7813,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.8639326386304798</v>
+        <v>0.9631257057955132</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7824,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.7067839878853877</v>
+        <v>0.9224115246006798</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7835,7 +7835,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.8873894806207638</v>
+        <v>0.9855496018645319</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7846,7 +7846,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.9792487903084588</v>
+        <v>0.8995443400456957</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7857,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.7283088151836903</v>
+        <v>0.9332096238919985</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7868,7 +7868,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.7828902148998463</v>
+        <v>0.9473840843649385</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7879,7 +7879,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0.7383729632073793</v>
+        <v>0.9272918877082447</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7890,7 +7890,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.7851344208295256</v>
+        <v>0.9595949469638272</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7901,7 +7901,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.9030932168429472</v>
+        <v>0.9970003195504519</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7912,7 +7912,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.8902560780086696</v>
+        <v>0.9723998183578216</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7923,7 +7923,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.6934330079700882</v>
+        <v>0.9128030702659468</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7934,7 +7934,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.9698110836381785</v>
+        <v>0.9840627599934316</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7945,7 +7945,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.5848677436736851</v>
+        <v>0.8434039765113081</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7956,7 +7956,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.9883252794112444</v>
+        <v>0.9426893319420522</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7967,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.89683992899256</v>
+        <v>0.9806191244304833</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7978,7 +7978,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.606669905800356</v>
+        <v>0.8656512992160624</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7989,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.8640339141675792</v>
+        <v>0.956314116851062</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8000,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.8490386590038446</v>
+        <v>0.9739976449881222</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8011,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0.905063926823295</v>
+        <v>0.9889566051722016</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8022,7 +8022,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0.7202239216682697</v>
+        <v>0.9251753788514989</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8033,7 +8033,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.9153167905001167</v>
+        <v>0.963677103472968</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8044,7 +8044,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0.7214584373068343</v>
+        <v>0.9272353851704818</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8055,7 +8055,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0.9262013137447807</v>
+        <v>0.974222006962244</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8066,7 +8066,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0.9722640303809269</v>
+        <v>0.9841064479752299</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8077,7 +8077,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.6668188869483107</v>
+        <v>0.9012668262182809</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8088,7 +8088,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0.9321098476986241</v>
+        <v>0.9920158879838639</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8099,7 +8099,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0.9736533516424616</v>
+        <v>0.9342064896388182</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.9049748926844312</v>
+        <v>0.9779876116764478</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8121,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>0.7766799832275242</v>
+        <v>0.958506035342207</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0.9285889762839663</v>
+        <v>0.909205143749747</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8143,7 +8143,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0.8813540175985355</v>
+        <v>0.9923160740353552</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8154,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>0.9830064656632748</v>
+        <v>0.9018242068277232</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8165,7 +8165,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.9071043008887713</v>
+        <v>0.9940924288028274</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8176,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>0.6776190359422397</v>
+        <v>0.9064026124631751</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8187,7 +8187,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>0.9859729491856651</v>
+        <v>0.947866424672228</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8198,7 +8198,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0.7679469382374176</v>
+        <v>0.9474425821340888</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8209,7 +8209,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0.9650214518324829</v>
+        <v>0.9790880290850541</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8220,7 +8220,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.9246523938918003</v>
+        <v>0.994719800700984</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8231,7 +8231,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>0.9951264221880475</v>
+        <v>0.8845390126963366</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8242,7 +8242,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>0.8558512096499773</v>
+        <v>0.985908878414592</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8253,7 +8253,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0.9351154197447645</v>
+        <v>0.9893968845932436</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8264,7 +8264,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>0.7426029813799961</v>
+        <v>0.9328810439511489</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8275,7 +8275,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>0.7724889058153023</v>
+        <v>0.9522697812995624</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8286,7 +8286,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.6820867973457286</v>
+        <v>0.9076153719922213</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8297,7 +8297,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>0.7830627729664477</v>
+        <v>0.9350743733812114</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8308,7 +8308,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>0.8107631692778844</v>
+        <v>0.9634992743010159</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8319,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>0.8150347945136346</v>
+        <v>0.9572519639337485</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8330,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>0.8071850747908289</v>
+        <v>0.9617350363635845</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8341,7 +8341,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>0.6935324447962659</v>
+        <v>0.9132330501425734</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8352,7 +8352,7 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>0.5744348563626012</v>
+        <v>0.844547414983027</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8363,7 +8363,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>0.9665612941010043</v>
+        <v>0.8269825804125187</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8374,7 +8374,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>0.8717145487793113</v>
+        <v>0.9834719990211063</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8385,7 +8385,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>0.8785579940357487</v>
+        <v>0.9844208026431642</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8396,7 +8396,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>0.8792106358657605</v>
+        <v>0.9425562557776674</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8407,7 +8407,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>0.8529313581223713</v>
+        <v>0.9558915436849853</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8418,7 +8418,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>0.9864348478993905</v>
+        <v>0.9517578488075843</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8429,7 +8429,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>0.6443661645133378</v>
+        <v>0.8862276831799792</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8440,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>0.9550949614639168</v>
+        <v>0.989680741794861</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8451,7 +8451,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0.8849991337520877</v>
+        <v>0.9881944315053846</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8462,7 +8462,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>0.6021035943404599</v>
+        <v>0.8587588932697976</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8473,7 +8473,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>0.6113798828523788</v>
+        <v>0.8681332524089728</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8484,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.9097650400958091</v>
+        <v>0.9680805621856231</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8495,7 +8495,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>0.8124593782535534</v>
+        <v>0.9711353603442582</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8506,7 +8506,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>0.966784534058981</v>
+        <v>0.9849562289953053</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8517,7 +8517,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>0.7764103764455152</v>
+        <v>0.9535106478017842</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8528,7 +8528,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>0.7622481939494782</v>
+        <v>0.9477291738884616</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8539,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>0.9932068760502784</v>
+        <v>0.9482203739322784</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8550,7 +8550,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>0.8285824746108896</v>
+        <v>0.9685377003198313</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8561,7 +8561,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>0.7192321556074888</v>
+        <v>0.9300902130969402</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8572,7 +8572,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>0.883913609217275</v>
+        <v>0.9899511723228904</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -8583,7 +8583,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>0.7191010116159191</v>
+        <v>0.9299850422856694</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8594,7 +8594,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>0.9239280373303105</v>
+        <v>0.9895332048434872</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -8605,7 +8605,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>0.8716311414484287</v>
+        <v>0.9915345385662437</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8616,7 +8616,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>0.6445945950711697</v>
+        <v>0.8831444570508167</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8627,7 +8627,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>0.8782723455797009</v>
+        <v>0.9901927878431287</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -8638,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>0.9869829694893333</v>
+        <v>0.9656080481073503</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -8649,7 +8649,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>0.8481320360441961</v>
+        <v>0.9692868921823351</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8660,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>0.8246625802206955</v>
+        <v>0.9769338916622704</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8671,7 +8671,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>0.9938249140190275</v>
+        <v>0.908321558518818</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8682,7 +8682,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>0.5562980418850029</v>
+        <v>0.8329212834373916</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8693,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>0.6489821711191032</v>
+        <v>0.883077503902776</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8704,7 +8704,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>0.9134683584696128</v>
+        <v>0.9710353616552161</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -8715,7 +8715,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>0.9194326701154764</v>
+        <v>0.9970923282135942</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8726,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>0.6474462208025213</v>
+        <v>0.8882355203889856</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8737,7 +8737,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>0.9662817326819387</v>
+        <v>0.9507490187441073</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -8748,7 +8748,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.7999653309539411</v>
+        <v>0.9682104234068212</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -8759,7 +8759,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>0.8510496720727505</v>
+        <v>0.9784263515206291</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -8770,7 +8770,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>0.8989374829929194</v>
+        <v>0.9671499662295368</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8781,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>0.9770410446530383</v>
+        <v>0.9764627275151755</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8792,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>0.9871658190702129</v>
+        <v>0.9198119963787627</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8803,7 +8803,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>0.6703221433470635</v>
+        <v>0.9040929281102581</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8814,7 +8814,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>0.8779559107922309</v>
+        <v>0.9855368343379763</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8825,7 +8825,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>0.9145855310298189</v>
+        <v>0.9959407302707471</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -8836,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>0.948784626648137</v>
+        <v>0.9069199659927253</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -8847,7 +8847,7 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>0.7556468557772942</v>
+        <v>0.9476356562328972</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -8858,7 +8858,7 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <v>0.9417122837038071</v>
+        <v>0.914710536930217</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -8869,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>0.9854745744452353</v>
+        <v>0.9201311359690704</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -8880,7 +8880,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>0.7796756767172183</v>
+        <v>0.9531543099604455</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -8891,7 +8891,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>0.6105364351836641</v>
+        <v>0.8623178157014819</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -8902,7 +8902,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>0.9845663538554295</v>
+        <v>0.8609618252992726</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -8913,7 +8913,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>0.8053722505865913</v>
+        <v>0.9656040518484537</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -8924,7 +8924,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>0.8820784875628297</v>
+        <v>0.9884427993835054</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>0.8155992043015758</v>
+        <v>0.9667685412738445</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -8946,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>0.7614945770082895</v>
+        <v>0.9473221301832851</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>0.9617024792634425</v>
+        <v>0.9792808032796998</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -8968,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>0.8495876358426651</v>
+        <v>0.9812875251504459</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -8979,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>0.8999543872354527</v>
+        <v>0.9959510186573223</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -8990,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>0.6798267586115708</v>
+        <v>0.8990548941226896</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9001,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>0.982895516984586</v>
+        <v>0.9142749652386548</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9012,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0.8614906432593374</v>
+        <v>0.9804539588347397</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9023,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>0.5975259437509941</v>
+        <v>0.8579332628980315</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9034,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>0.8388115905525124</v>
+        <v>0.9810942518454363</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9045,7 +9045,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>0.9666874122496222</v>
+        <v>0.8299589129519129</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9056,7 +9056,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>0.8703998470620667</v>
+        <v>0.9900695911537626</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9067,7 +9067,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>0.8590965771081589</v>
+        <v>0.9583592372023211</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9078,7 +9078,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>0.8189436581675965</v>
+        <v>0.9715087583659691</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9089,7 +9089,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>0.9053027903580811</v>
+        <v>0.9864227214942334</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -9100,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>0.8899751269782915</v>
+        <v>0.9667688059475186</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9111,7 +9111,7 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>0.8921247947192388</v>
+        <v>0.9476926991366336</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -9122,7 +9122,7 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>0.9306811232166556</v>
+        <v>0.9967670528823684</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9133,7 +9133,7 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>0.5602526139869008</v>
+        <v>0.8315908673951974</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9144,7 +9144,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>0.7257349710321598</v>
+        <v>0.9321572259605534</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9155,7 +9155,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>0.5916671521934982</v>
+        <v>0.8554390225798508</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9166,7 +9166,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>0.8534713322141725</v>
+        <v>0.9759711106118412</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9177,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>0.8159222967249558</v>
+        <v>0.9743900512745519</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9188,7 +9188,7 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>0.9352213108127025</v>
+        <v>0.9864990752147446</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9199,7 +9199,7 @@
         <v>3</v>
       </c>
       <c r="C150">
-        <v>0.8158862778741666</v>
+        <v>0.9734347272549327</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -9210,7 +9210,7 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>0.9495757442669142</v>
+        <v>0.9230812765695103</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -9221,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>0.7893908640706664</v>
+        <v>0.9481733573016852</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9232,7 +9232,7 @@
         <v>3</v>
       </c>
       <c r="C153">
-        <v>0.7566346898580779</v>
+        <v>0.9456570477210761</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>0.9851678545392087</v>
+        <v>0.8594776319900542</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -9254,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="C155">
-        <v>0.9770417616785781</v>
+        <v>0.8481873101559456</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -9265,7 +9265,7 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>0.9733486713706492</v>
+        <v>0.9562648566997981</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -9276,7 +9276,7 @@
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0.8085434929764488</v>
+        <v>0.9669573543992088</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -9287,7 +9287,7 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>0.9733919434917541</v>
+        <v>0.9814187453638213</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -9298,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="C159">
-        <v>0.9609344963034441</v>
+        <v>0.977184079646282</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -9309,7 +9309,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>0.9698189516097602</v>
+        <v>0.983279906107841</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -9320,7 +9320,7 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>0.8032290349469184</v>
+        <v>0.961702965028945</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -9331,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="C162">
-        <v>0.9784591620960544</v>
+        <v>0.8396357038465857</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>0.8949792763846024</v>
+        <v>0.9840354849866502</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -9353,7 +9353,7 @@
         <v>3</v>
       </c>
       <c r="C164">
-        <v>0.9056310536532235</v>
+        <v>0.9561534249861433</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -9364,7 +9364,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>0.7143802102962657</v>
+        <v>0.9265557670826552</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -9375,7 +9375,7 @@
         <v>3</v>
       </c>
       <c r="C166">
-        <v>0.8465607132544812</v>
+        <v>0.9577891577817661</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -9386,7 +9386,7 @@
         <v>3</v>
       </c>
       <c r="C167">
-        <v>0.9944333437745585</v>
+        <v>0.8819337717975484</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -9397,7 +9397,7 @@
         <v>3</v>
       </c>
       <c r="C168">
-        <v>0.7034335842849306</v>
+        <v>0.9090046069111296</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -9408,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="C169">
-        <v>0.9550487489467068</v>
+        <v>0.8811909253467691</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -9419,7 +9419,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>0.9162309214354278</v>
+        <v>0.990569892154196</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9430,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="C171">
-        <v>0.809692267110506</v>
+        <v>0.9600018646940904</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>0.5486360110256219</v>
+        <v>0.8228940022647319</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -9452,7 +9452,7 @@
         <v>3</v>
       </c>
       <c r="C173">
-        <v>0.939021330736723</v>
+        <v>0.955541979995723</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -9463,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="C174">
-        <v>0.8628122902287749</v>
+        <v>0.9770167842541667</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -9474,7 +9474,7 @@
         <v>3</v>
       </c>
       <c r="C175">
-        <v>0.6242367365012095</v>
+        <v>0.8731655386685344</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -9485,7 +9485,7 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>0.7608651020484433</v>
+        <v>0.9514245247543358</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -9496,7 +9496,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>0.6850178787973688</v>
+        <v>0.8947510073034997</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -9507,7 +9507,7 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>0.9475442039713894</v>
+        <v>0.9643002836488552</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -9518,7 +9518,7 @@
         <v>3</v>
       </c>
       <c r="C179">
-        <v>0.8755020535593366</v>
+        <v>0.9500990332342826</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -9529,7 +9529,7 @@
         <v>3</v>
       </c>
       <c r="C180">
-        <v>0.9540029879088117</v>
+        <v>0.8011095902939094</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="C181">
-        <v>0.7866428326337692</v>
+        <v>0.9603353853607647</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -9551,7 +9551,7 @@
         <v>3</v>
       </c>
       <c r="C182">
-        <v>0.9702140434491917</v>
+        <v>0.9636722064402543</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -9562,7 +9562,7 @@
         <v>3</v>
       </c>
       <c r="C183">
-        <v>0.9652296094691246</v>
+        <v>0.8179508895089197</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9573,7 +9573,7 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>0.8115830602476439</v>
+        <v>0.9607548456669671</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -9584,7 +9584,7 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <v>0.9398540418702601</v>
+        <v>0.988132499015475</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -9595,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="C186">
-        <v>0.6726441760947606</v>
+        <v>0.9018734155839536</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9606,7 +9606,7 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>0.8800315532782621</v>
+        <v>0.9190566347671477</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -9617,7 +9617,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>0.7296311649597542</v>
+        <v>0.9341223696052507</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -9628,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="C189">
-        <v>0.7721120007254293</v>
+        <v>0.9361682210866589</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -9639,7 +9639,7 @@
         <v>3</v>
       </c>
       <c r="C190">
-        <v>0.904995579075172</v>
+        <v>0.9903958665028512</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -9650,7 +9650,7 @@
         <v>3</v>
       </c>
       <c r="C191">
-        <v>0.9296208596328807</v>
+        <v>0.9949911500985222</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -9661,7 +9661,7 @@
         <v>3</v>
       </c>
       <c r="C192">
-        <v>0.9386298602429437</v>
+        <v>0.9901827922084941</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -9672,7 +9672,7 @@
         <v>3</v>
       </c>
       <c r="C193">
-        <v>0.997150973127785</v>
+        <v>0.9303706192944003</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -9683,7 +9683,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>0.8522431801042063</v>
+        <v>0.977498411179568</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -9694,7 +9694,7 @@
         <v>3</v>
       </c>
       <c r="C195">
-        <v>0.6782618407878214</v>
+        <v>0.8992813532126612</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -9705,7 +9705,7 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>0.8989291939096505</v>
+        <v>0.9815053022817453</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>0.9327963955379702</v>
+        <v>0.9191105949563216</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -9727,7 +9727,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>0.7112916804511715</v>
+        <v>0.9201786184792027</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -9738,7 +9738,7 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>0.7690635809946764</v>
+        <v>0.9492728044951666</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -9749,7 +9749,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>0.8278418076408416</v>
+        <v>0.9789172509797025</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="C201">
-        <v>0.9670282880527049</v>
+        <v>0.9755913457720358</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -9771,7 +9771,7 @@
         <v>3</v>
       </c>
       <c r="C202">
-        <v>0.8056612618178315</v>
+        <v>0.9585568609540843</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -9782,7 +9782,7 @@
         <v>3</v>
       </c>
       <c r="C203">
-        <v>0.8159142277968083</v>
+        <v>0.9708122537841638</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -9793,7 +9793,7 @@
         <v>3</v>
       </c>
       <c r="C204">
-        <v>0.9563698133303195</v>
+        <v>0.8370125838148661</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -9804,7 +9804,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>0.9050524977365578</v>
+        <v>0.9552559351870954</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -9815,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="C206">
-        <v>0.6702313921052487</v>
+        <v>0.9030833242923492</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -9826,7 +9826,7 @@
         <v>3</v>
       </c>
       <c r="C207">
-        <v>0.9825319541244349</v>
+        <v>0.9544399095144797</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -9837,7 +9837,7 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>0.9827254692043923</v>
+        <v>0.8372555476710729</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -9848,7 +9848,7 @@
         <v>3</v>
       </c>
       <c r="C209">
-        <v>0.7375585536530922</v>
+        <v>0.9392779283099523</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -9859,7 +9859,7 @@
         <v>3</v>
       </c>
       <c r="C210">
-        <v>0.8327855480816188</v>
+        <v>0.965058875041503</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -9870,7 +9870,7 @@
         <v>3</v>
       </c>
       <c r="C211">
-        <v>0.9414150238225472</v>
+        <v>0.9899154187041384</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -9881,7 +9881,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.8003443974535034</v>
+        <v>0.9645218666210978</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -9892,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="C213">
-        <v>0.9908021685186343</v>
+        <v>0.9018003878657465</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -9903,7 +9903,7 @@
         <v>3</v>
       </c>
       <c r="C214">
-        <v>0.7592473821684044</v>
+        <v>0.9432709438894662</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -9914,7 +9914,7 @@
         <v>3</v>
       </c>
       <c r="C215">
-        <v>0.6796624528540034</v>
+        <v>0.9064746085543898</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -9925,7 +9925,7 @@
         <v>3</v>
       </c>
       <c r="C216">
-        <v>0.6676345625887143</v>
+        <v>0.9025921812145487</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -9936,7 +9936,7 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>0.9985949659979726</v>
+        <v>0.9275814356045298</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -9947,7 +9947,7 @@
         <v>3</v>
       </c>
       <c r="C218">
-        <v>0.8048379862181522</v>
+        <v>0.9612199487174395</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -9958,7 +9958,7 @@
         <v>3</v>
       </c>
       <c r="C219">
-        <v>0.9818318952540862</v>
+        <v>0.944110480233185</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -9969,7 +9969,7 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <v>0.8985339554751229</v>
+        <v>0.9711712279718728</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -9980,7 +9980,7 @@
         <v>3</v>
       </c>
       <c r="C221">
-        <v>0.7203100168641567</v>
+        <v>0.9282980427255307</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -9991,7 +9991,7 @@
         <v>3</v>
       </c>
       <c r="C222">
-        <v>0.9456556612692665</v>
+        <v>0.9526466028911956</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10002,7 +10002,7 @@
         <v>3</v>
       </c>
       <c r="C223">
-        <v>0.8388989960663518</v>
+        <v>0.9570300232355229</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -10013,7 +10013,7 @@
         <v>3</v>
       </c>
       <c r="C224">
-        <v>0.8944793743891049</v>
+        <v>0.9847529030243479</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -10024,7 +10024,7 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <v>0.8691602660074482</v>
+        <v>0.9914696608507086</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>0.9397059132602955</v>
+        <v>0.9881082537924074</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -10046,7 +10046,7 @@
         <v>4</v>
       </c>
       <c r="C227">
-        <v>0.7225693896268059</v>
+        <v>0.9309950061453374</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10057,7 +10057,7 @@
         <v>4</v>
       </c>
       <c r="C228">
-        <v>0.7478961643260477</v>
+        <v>0.9415252296498202</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -10068,7 +10068,7 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>0.7629919982933933</v>
+        <v>0.9524497983392459</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -10079,7 +10079,7 @@
         <v>4</v>
       </c>
       <c r="C230">
-        <v>0.8536418337870193</v>
+        <v>0.9873476750162747</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10090,7 +10090,7 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>0.7744044702312098</v>
+        <v>0.9375853480426323</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -10101,7 +10101,7 @@
         <v>4</v>
       </c>
       <c r="C232">
-        <v>0.7685706962000357</v>
+        <v>0.9518491270818059</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -10112,7 +10112,7 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <v>0.9023005805463483</v>
+        <v>0.9907401476479463</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -10123,7 +10123,7 @@
         <v>4</v>
       </c>
       <c r="C234">
-        <v>0.9642578057345532</v>
+        <v>0.849424187787284</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -10134,7 +10134,7 @@
         <v>4</v>
       </c>
       <c r="C235">
-        <v>0.9889338325093564</v>
+        <v>0.9610953090176643</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -10145,7 +10145,7 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>0.9362235235096116</v>
+        <v>0.7883177149562602</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -10156,7 +10156,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>0.9350540537446735</v>
+        <v>0.9858302195605244</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -10167,7 +10167,7 @@
         <v>4</v>
       </c>
       <c r="C238">
-        <v>0.8713360355970714</v>
+        <v>0.9626274344514941</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -10178,7 +10178,7 @@
         <v>4</v>
       </c>
       <c r="C239">
-        <v>0.5868806674789578</v>
+        <v>0.8530434564735901</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -10189,7 +10189,7 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <v>0.6733350377534219</v>
+        <v>0.9027741688258242</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -10200,7 +10200,7 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>0.8268447090516449</v>
+        <v>0.9752839230234279</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -10211,7 +10211,7 @@
         <v>4</v>
       </c>
       <c r="C242">
-        <v>0.795694537071907</v>
+        <v>0.9588907818609057</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -10222,7 +10222,7 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>0.9382962177302721</v>
+        <v>0.8350608670687298</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -10233,7 +10233,7 @@
         <v>4</v>
       </c>
       <c r="C244">
-        <v>0.6940811211409224</v>
+        <v>0.9159991213695678</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -10244,7 +10244,7 @@
         <v>4</v>
       </c>
       <c r="C245">
-        <v>0.8534667659455712</v>
+        <v>0.9234647631652553</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -10255,7 +10255,7 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <v>0.9081673355969454</v>
+        <v>0.9807216278282935</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -10266,7 +10266,7 @@
         <v>4</v>
       </c>
       <c r="C247">
-        <v>0.9455645452056178</v>
+        <v>0.9778279008907443</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -10277,7 +10277,7 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>0.6737961604946704</v>
+        <v>0.8946823190564824</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -10288,7 +10288,7 @@
         <v>4</v>
       </c>
       <c r="C249">
-        <v>0.6731809467126519</v>
+        <v>0.9001381406935762</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -10299,7 +10299,7 @@
         <v>4</v>
       </c>
       <c r="C250">
-        <v>0.8952770779337372</v>
+        <v>0.9941528046164178</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -10310,7 +10310,7 @@
         <v>4</v>
       </c>
       <c r="C251">
-        <v>0.801985953738622</v>
+        <v>0.9676878631662647</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -10321,7 +10321,7 @@
         <v>4</v>
       </c>
       <c r="C252">
-        <v>0.9203441762073454</v>
+        <v>0.9944875227283333</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -10332,7 +10332,7 @@
         <v>4</v>
       </c>
       <c r="C253">
-        <v>0.8076473913358819</v>
+        <v>0.9556684175698328</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -10343,7 +10343,7 @@
         <v>4</v>
       </c>
       <c r="C254">
-        <v>0.6855417338173945</v>
+        <v>0.8952743851808548</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -10354,7 +10354,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>0.8895554471470293</v>
+        <v>0.9945082839081991</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -10365,7 +10365,7 @@
         <v>4</v>
       </c>
       <c r="C256">
-        <v>0.9761689842980401</v>
+        <v>0.9268864871067751</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -10376,7 +10376,7 @@
         <v>4</v>
       </c>
       <c r="C257">
-        <v>0.9930067030057573</v>
+        <v>0.9183248519154694</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -10387,7 +10387,7 @@
         <v>4</v>
       </c>
       <c r="C258">
-        <v>0.8651502574384311</v>
+        <v>0.9897229963167589</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -10398,7 +10398,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>0.9215793848740255</v>
+        <v>0.9869702569979764</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -10409,7 +10409,7 @@
         <v>4</v>
       </c>
       <c r="C260">
-        <v>0.9862991482753133</v>
+        <v>0.8906741209250759</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -10420,7 +10420,7 @@
         <v>4</v>
       </c>
       <c r="C261">
-        <v>0.9935691578588093</v>
+        <v>0.9262793039752628</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -10431,7 +10431,7 @@
         <v>4</v>
       </c>
       <c r="C262">
-        <v>0.8051719602533822</v>
+        <v>0.9584082673192676</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -10442,7 +10442,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>0.7744268472250537</v>
+        <v>0.9489540768030174</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -10453,7 +10453,7 @@
         <v>4</v>
       </c>
       <c r="C264">
-        <v>0.8582736325194823</v>
+        <v>0.9834025226501223</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -10464,7 +10464,7 @@
         <v>4</v>
       </c>
       <c r="C265">
-        <v>0.9662066590255469</v>
+        <v>0.9872307994308444</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <v>0.9226829577549506</v>
+        <v>0.9813595614484319</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -10486,7 +10486,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>0.9845124766591967</v>
+        <v>0.892263387555033</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -10497,7 +10497,7 @@
         <v>4</v>
       </c>
       <c r="C268">
-        <v>0.7452160954115649</v>
+        <v>0.9404353791867884</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -10508,7 +10508,7 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>0.6776679274452118</v>
+        <v>0.9038720206832476</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="C270">
-        <v>0.9931604477493654</v>
+        <v>0.9502015355095681</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -10530,7 +10530,7 @@
         <v>4</v>
       </c>
       <c r="C271">
-        <v>0.9884516555059458</v>
+        <v>0.9107174919647337</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -10541,7 +10541,7 @@
         <v>4</v>
       </c>
       <c r="C272">
-        <v>0.9963726769496341</v>
+        <v>0.9040530336272801</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -10552,7 +10552,7 @@
         <v>4</v>
       </c>
       <c r="C273">
-        <v>0.6175953776974861</v>
+        <v>0.8712252482935654</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -10563,7 +10563,7 @@
         <v>4</v>
       </c>
       <c r="C274">
-        <v>0.8394982033894537</v>
+        <v>0.9652982526964338</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -10574,7 +10574,7 @@
         <v>4</v>
       </c>
       <c r="C275">
-        <v>0.9132704554464421</v>
+        <v>0.919288104911991</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -10585,7 +10585,7 @@
         <v>4</v>
       </c>
       <c r="C276">
-        <v>0.9436673025663419</v>
+        <v>0.9695180991042793</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -10596,7 +10596,7 @@
         <v>4</v>
       </c>
       <c r="C277">
-        <v>0.8236896478762704</v>
+        <v>0.9733246224458423</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -10607,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="C278">
-        <v>0.8757062126703167</v>
+        <v>0.9634293002780677</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -10618,7 +10618,7 @@
         <v>4</v>
       </c>
       <c r="C279">
-        <v>0.7011231464520803</v>
+        <v>0.9091662154079501</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -10629,7 +10629,7 @@
         <v>4</v>
       </c>
       <c r="C280">
-        <v>0.7099573811700486</v>
+        <v>0.9257298494004266</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -10640,7 +10640,7 @@
         <v>4</v>
       </c>
       <c r="C281">
-        <v>0.7067017072396842</v>
+        <v>0.9227005389549234</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -10651,7 +10651,7 @@
         <v>4</v>
       </c>
       <c r="C282">
-        <v>0.6516684631949337</v>
+        <v>0.8923641561280871</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -10662,7 +10662,7 @@
         <v>4</v>
       </c>
       <c r="C283">
-        <v>0.8151610314545107</v>
+        <v>0.9346998955341601</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -10673,7 +10673,7 @@
         <v>4</v>
       </c>
       <c r="C284">
-        <v>0.703849640220868</v>
+        <v>0.9110673363906995</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -10684,7 +10684,7 @@
         <v>4</v>
       </c>
       <c r="C285">
-        <v>0.9368137912724255</v>
+        <v>0.989098437302585</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -10695,7 +10695,7 @@
         <v>4</v>
       </c>
       <c r="C286">
-        <v>0.7667927897161457</v>
+        <v>0.9265986348983706</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -10706,7 +10706,7 @@
         <v>4</v>
       </c>
       <c r="C287">
-        <v>0.8852370548623176</v>
+        <v>0.9899955668008688</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -10717,7 +10717,7 @@
         <v>4</v>
       </c>
       <c r="C288">
-        <v>0.9764974531922981</v>
+        <v>0.8373677910003484</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -10728,7 +10728,7 @@
         <v>4</v>
       </c>
       <c r="C289">
-        <v>0.9473042198726247</v>
+        <v>0.9494877957258764</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -10739,7 +10739,7 @@
         <v>4</v>
       </c>
       <c r="C290">
-        <v>0.8103298565481897</v>
+        <v>0.9547036062126865</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -10750,7 +10750,7 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>0.8929144877692174</v>
+        <v>0.9955226664507532</v>
       </c>
     </row>
   </sheetData>
@@ -10785,7 +10785,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.8583451073781242</v>
+        <v>0.9507716746042749</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10796,7 +10796,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.7531973178964133</v>
+        <v>0.9512516341647097</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10807,7 +10807,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.6595452739769052</v>
+        <v>0.898922542234773</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10818,7 +10818,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9317673701246563</v>
+        <v>0.9957685187821451</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10829,7 +10829,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.8017375827703332</v>
+        <v>0.9581579899073426</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10840,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.8645059265279678</v>
+        <v>0.9824158469671275</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10851,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.9702167578013653</v>
+        <v>0.7925001877618126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10862,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9272273084677193</v>
+        <v>0.95216660422858</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10873,7 +10873,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.9704602191702008</v>
+        <v>0.964916466296739</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10884,7 +10884,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.9817049257601865</v>
+        <v>0.959400884917603</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10895,7 +10895,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.7176716584268508</v>
+        <v>0.93258125411219</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10906,7 +10906,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.7026537055293505</v>
+        <v>0.9215838075512265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10917,7 +10917,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0.811094892228852</v>
+        <v>0.9698715201499351</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10928,7 +10928,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.9893678606844326</v>
+        <v>0.95593462125239</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10939,7 +10939,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.6230987761763469</v>
+        <v>0.8786922995523025</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10950,7 +10950,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.6995560198063944</v>
+        <v>0.9250788146821773</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10961,7 +10961,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.7959516318746227</v>
+        <v>0.9402535687005189</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10972,7 +10972,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.8053626571776279</v>
+        <v>0.969804844534738</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10983,7 +10983,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.7577075365886247</v>
+        <v>0.9370118703241415</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10994,7 +10994,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.9786148218176078</v>
+        <v>0.8345128977845632</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11005,7 +11005,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.8894985760097397</v>
+        <v>0.9794679568012193</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11016,7 +11016,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.8317423696325809</v>
+        <v>0.9779563818931916</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11027,7 +11027,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.9647190156637562</v>
+        <v>0.9214198810221776</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11038,7 +11038,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.9505603114573409</v>
+        <v>0.951681261054656</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11049,7 +11049,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.6743609547373677</v>
+        <v>0.9082329626873854</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11060,7 +11060,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.8542073215762206</v>
+        <v>0.9889798935278299</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11071,7 +11071,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.9811728451161739</v>
+        <v>0.8574702139641297</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11082,7 +11082,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.9307322451976762</v>
+        <v>0.9923943390984619</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11093,7 +11093,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0.9451490073029355</v>
+        <v>0.9913592886945112</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11104,7 +11104,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.7921161370553532</v>
+        <v>0.9645902193950132</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11115,7 +11115,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.9515083020380056</v>
+        <v>0.9273612626049158</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -11126,7 +11126,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.8129314770164868</v>
+        <v>0.9720461951719601</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -11137,7 +11137,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.9227131489622095</v>
+        <v>0.9722381935503845</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11148,7 +11148,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.7522928435561702</v>
+        <v>0.9515272146046779</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11159,7 +11159,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.8283469037550797</v>
+        <v>0.9703069690577718</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -11170,7 +11170,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.9187410786500934</v>
+        <v>0.9889789123876657</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -11181,7 +11181,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.8220825747898695</v>
+        <v>0.977236851691377</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -11192,7 +11192,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.5590916584784575</v>
+        <v>0.8397473945253952</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -11203,7 +11203,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.943684831396662</v>
+        <v>0.9911204992260894</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -11214,7 +11214,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.7892593980913744</v>
+        <v>0.9656173606831201</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0.8418777769156519</v>
+        <v>0.9842090612021467</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11236,7 +11236,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0.6467955448799401</v>
+        <v>0.8942300325198936</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11247,7 +11247,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.5770913262782724</v>
+        <v>0.8535297191151112</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -11258,7 +11258,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0.9118844365335097</v>
+        <v>0.9947661646296013</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11269,7 +11269,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0.6164772544576971</v>
+        <v>0.8762804312279912</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -11280,7 +11280,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0.5878058830928061</v>
+        <v>0.860954888079522</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -11291,7 +11291,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.8989690363366012</v>
+        <v>0.9559794610389439</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -11302,7 +11302,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0.7335541693881925</v>
+        <v>0.9374794167284161</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -11313,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0.8538335100653264</v>
+        <v>0.9877909850046329</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -11324,7 +11324,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.773282586521889</v>
+        <v>0.9423778929991524</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -11335,7 +11335,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>0.7838432684961146</v>
+        <v>0.9549172752929768</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -11346,7 +11346,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0.6505801853245011</v>
+        <v>0.8997933080191238</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -11357,7 +11357,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0.7241835712045208</v>
+        <v>0.9260772896914321</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -11368,7 +11368,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>0.7181034126052963</v>
+        <v>0.9361900286662281</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -11379,7 +11379,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.7012217457025173</v>
+        <v>0.9264123012355066</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -11390,7 +11390,7 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>0.8992705511251904</v>
+        <v>0.9884853136724918</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -11401,7 +11401,7 @@
         <v>4</v>
       </c>
       <c r="C58">
-        <v>0.6439735210200601</v>
+        <v>0.8907075209523116</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -11412,7 +11412,7 @@
         <v>4</v>
       </c>
       <c r="C59">
-        <v>0.9585336112674802</v>
+        <v>0.9831053559980825</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -11423,7 +11423,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>0.8403093002109894</v>
+        <v>0.9802490681203613</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -11434,7 +11434,7 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>0.6013154454596674</v>
+        <v>0.8600673473371545</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -11445,7 +11445,7 @@
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.8173989173207193</v>
+        <v>0.9635528169430302</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -11456,7 +11456,7 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>0.9838518808705581</v>
+        <v>0.8555689949672726</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -11467,7 +11467,7 @@
         <v>4</v>
       </c>
       <c r="C64">
-        <v>0.6714761568970489</v>
+        <v>0.9047367431471099</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -11478,7 +11478,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>0.9705670011453945</v>
+        <v>0.9394688751889128</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -11489,7 +11489,7 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>0.7178108804031051</v>
+        <v>0.917824765509103</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -11500,7 +11500,7 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>0.7670624253219642</v>
+        <v>0.9511477284635402</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -11511,7 +11511,7 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>0.9001433237788066</v>
+        <v>0.9690347607107513</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -11522,7 +11522,7 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>0.9055772636354636</v>
+        <v>0.9932670207972407</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -11533,7 +11533,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>0.7849683539557059</v>
+        <v>0.948965806727527</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -11544,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>0.7563406397558493</v>
+        <v>0.94028118898976</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -11555,7 +11555,7 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>0.7919762396801404</v>
+        <v>0.94293146610265</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -11566,7 +11566,7 @@
         <v>4</v>
       </c>
       <c r="C73">
-        <v>0.8126159751493792</v>
+        <v>0.9741380469045032</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -11577,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>0.9539463349831603</v>
+        <v>0.9893405251948618</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -11588,7 +11588,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>0.8035390854944288</v>
+        <v>0.9572526926519326</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -11599,7 +11599,7 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <v>0.7185593745594143</v>
+        <v>0.9062399909058902</v>
       </c>
     </row>
   </sheetData>
